--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Run Report Comments</t>
+    <t>RS Observation - Run Report Comments</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Observation - Run Report Comments</t>
+    <t>Road Safety Observation - Run Report Comments</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Observation - Run Report Comments</t>
+    <t>RS Observation - Run Report Comments</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="476">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>General comments from run report.</t>
+    <t>Enter other comment (s) regarding the case</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -746,6 +746,13 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="77999-1"/&gt;
+  &lt;display value="Case notification comment"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -753,136 +760,6 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>77999-1</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Case notification comment</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -1959,7 +1836,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4230,7 +4107,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>83</v>
@@ -4272,7 +4149,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4293,10 +4170,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4307,10 +4184,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4330,19 +4207,23 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4390,7 +4271,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4402,7 +4283,7 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>83</v>
@@ -4411,10 +4292,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4423,46 +4304,48 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4498,46 +4381,46 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4545,10 +4428,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4559,7 +4442,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -4571,26 +4454,24 @@
         <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>257</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>83</v>
@@ -4632,13 +4513,13 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
@@ -4653,28 +4534,28 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4684,7 +4565,7 @@
         <v>94</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
@@ -4693,18 +4574,20 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -4752,7 +4635,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4767,34 +4650,34 @@
         <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>83</v>
+        <v>274</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4804,7 +4687,7 @@
         <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>83</v>
@@ -4813,17 +4696,19 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4833,7 +4718,7 @@
         <v>83</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>83</v>
@@ -4872,7 +4757,7 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4887,19 +4772,19 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4907,10 +4792,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4933,18 +4818,18 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>83</v>
       </c>
@@ -4953,7 +4838,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -4992,7 +4877,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5013,13 +4898,13 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5027,10 +4912,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5041,7 +4926,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>83</v>
@@ -5053,19 +4938,17 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5114,13 +4997,13 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>83</v>
@@ -5129,19 +5012,19 @@
         <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
@@ -5149,10 +5032,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5160,7 +5043,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>94</v>
@@ -5178,16 +5061,16 @@
         <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5224,19 +5107,17 @@
         <v>83</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5245,7 +5126,7 @@
         <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>106</v>
@@ -5254,29 +5135,31 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5297,19 +5180,19 @@
         <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5358,7 +5241,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5367,36 +5250,36 @@
         <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5407,7 +5290,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>83</v>
@@ -5416,21 +5299,23 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
       </c>
@@ -5454,13 +5339,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5478,16 +5363,16 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>106</v>
@@ -5499,59 +5384,59 @@
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5576,13 +5461,13 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
@@ -5600,13 +5485,13 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
@@ -5615,65 +5500,65 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5722,13 +5607,13 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
@@ -5737,19 +5622,19 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
@@ -5757,10 +5642,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5780,19 +5665,19 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5818,13 +5703,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5842,7 +5727,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5860,27 +5745,27 @@
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5891,7 +5776,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -5900,20 +5785,22 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5938,13 +5825,13 @@
         <v>83</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>83</v>
@@ -5962,13 +5849,13 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
@@ -5977,19 +5864,19 @@
         <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>339</v>
+        <v>83</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
@@ -5997,10 +5884,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6008,7 +5895,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>94</v>
@@ -6020,23 +5907,21 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>365</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6072,17 +5957,19 @@
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>349</v>
+        <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6091,7 +5978,7 @@
         <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>106</v>
@@ -6100,65 +5987,61 @@
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>217</v>
+        <v>374</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>83</v>
       </c>
@@ -6206,7 +6089,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6215,7 +6098,7 @@
         <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>106</v>
@@ -6224,27 +6107,27 @@
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>354</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6255,7 +6138,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6267,19 +6150,19 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6304,13 +6187,13 @@
         <v>83</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>364</v>
+        <v>83</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>83</v>
@@ -6328,19 +6211,19 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>365</v>
+        <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>106</v>
+        <v>388</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
@@ -6349,10 +6232,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>137</v>
+        <v>389</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6363,21 +6246,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6389,20 +6272,16 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>369</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6426,13 +6305,13 @@
         <v>83</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>83</v>
@@ -6450,49 +6329,49 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>367</v>
+        <v>220</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>377</v>
+        <v>221</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6511,20 +6390,18 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>381</v>
+        <v>141</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>382</v>
+        <v>223</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6572,7 +6449,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>379</v>
+        <v>227</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6584,7 +6461,7 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6593,10 +6470,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>385</v>
+        <v>83</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>386</v>
+        <v>221</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6607,44 +6484,46 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6668,13 +6547,13 @@
         <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6692,45 +6571,45 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>395</v>
+        <v>137</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6753,20 +6632,16 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O40" t="s" s="2">
         <v>401</v>
       </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6790,13 +6665,13 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>402</v>
+        <v>83</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6814,7 +6689,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6823,7 +6698,7 @@
         <v>94</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>106</v>
@@ -6835,10 +6710,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6849,10 +6724,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6875,17 +6750,15 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6934,7 +6807,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6943,7 +6816,7 @@
         <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>106</v>
@@ -6952,27 +6825,27 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>411</v>
+        <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>414</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6995,18 +6868,20 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>416</v>
+        <v>192</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7030,13 +6905,13 @@
         <v>83</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>83</v>
+        <v>414</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>83</v>
@@ -7054,7 +6929,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7072,27 +6947,27 @@
         <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>423</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7115,19 +6990,19 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7152,13 +7027,13 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>83</v>
+        <v>423</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>83</v>
+        <v>424</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
@@ -7176,7 +7051,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7188,19 +7063,19 @@
         <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7211,10 +7086,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7237,16 +7112,18 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>217</v>
+        <v>426</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>218</v>
+        <v>427</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>219</v>
+        <v>428</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7294,7 +7171,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>220</v>
+        <v>425</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7306,7 +7183,7 @@
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
@@ -7318,7 +7195,7 @@
         <v>83</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>221</v>
+        <v>430</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7329,21 +7206,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7355,17 +7232,15 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>141</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7414,19 +7289,19 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>227</v>
+        <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
@@ -7435,10 +7310,10 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>221</v>
+        <v>434</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7456,7 +7331,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7469,13 +7344,13 @@
         <v>83</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>436</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>437</v>
@@ -7484,11 +7359,9 @@
         <v>438</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7536,7 +7409,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7548,7 +7421,7 @@
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7557,10 +7430,10 @@
         <v>83</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>137</v>
+        <v>441</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7571,10 +7444,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7585,7 +7458,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7594,18 +7467,20 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7654,16 +7529,16 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7675,10 +7550,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7689,10 +7564,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7703,7 +7578,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
@@ -7712,19 +7587,23 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7772,16 +7651,16 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>444</v>
+        <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -7793,10 +7672,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7807,10 +7686,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7833,20 +7712,16 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>452</v>
+        <v>218</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7870,13 +7745,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>456</v>
+        <v>83</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -7894,7 +7769,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>451</v>
+        <v>220</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7906,19 +7781,19 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>377</v>
+        <v>221</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -7929,14 +7804,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7955,20 +7830,18 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>461</v>
+        <v>141</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>462</v>
+        <v>223</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>83</v>
       </c>
@@ -7992,13 +7865,13 @@
         <v>83</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>465</v>
+        <v>83</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>83</v>
@@ -8016,7 +7889,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>460</v>
+        <v>227</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8028,19 +7901,19 @@
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>377</v>
+        <v>221</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8051,43 +7924,45 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>468</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>471</v>
+        <v>149</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>83</v>
@@ -8136,19 +8011,19 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>467</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8160,7 +8035,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>472</v>
+        <v>137</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8171,10 +8046,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8182,7 +8057,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>94</v>
@@ -8194,19 +8069,23 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8230,13 +8109,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8254,10 +8133,10 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>94</v>
@@ -8272,16 +8151,16 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>83</v>
+        <v>462</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>445</v>
+        <v>212</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>476</v>
+        <v>213</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8289,10 +8168,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8303,7 +8182,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
@@ -8315,18 +8194,20 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>480</v>
+        <v>303</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8374,13 +8255,13 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
@@ -8392,27 +8273,27 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>482</v>
+        <v>310</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>483</v>
+        <v>311</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8423,7 +8304,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>83</v>
@@ -8432,21 +8313,23 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>485</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
       </c>
@@ -8470,13 +8353,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8494,16 +8377,16 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>106</v>
@@ -8515,10 +8398,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>482</v>
+        <v>137</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>489</v>
+        <v>324</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -8529,14 +8412,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8552,22 +8435,22 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>425</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>491</v>
+        <v>327</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>492</v>
+        <v>328</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>493</v>
+        <v>329</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>494</v>
+        <v>330</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8592,13 +8475,13 @@
         <v>83</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -8616,7 +8499,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8634,27 +8517,27 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>83</v>
+        <v>333</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>495</v>
+        <v>334</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>496</v>
+        <v>335</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8665,7 +8548,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8677,16 +8560,20 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>474</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
       </c>
@@ -8734,19 +8621,19 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>220</v>
+        <v>473</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
@@ -8755,872 +8642,20 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>221</v>
+        <v>390</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP63" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP56">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9630,7 +8665,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4107,10 +4107,10 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S19" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3700,7 +3700,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>201</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-runreport-comments.xlsx
+++ b/StructureDefinition-rs-observation-runreport-comments.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
